--- a/ClientProjectJava/testXMLFile.xlsx
+++ b/ClientProjectJava/testXMLFile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>hello</t>
   </si>
@@ -393,7 +393,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
